--- a/storage/app/public/submissions/datas (3).xlsx
+++ b/storage/app/public/submissions/datas (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wense\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D856E-1112-43A8-8888-68E87C7FBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2DD26A-3286-442D-88AD-7010EA668ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>1st Runner Up</t>
   </si>
   <si>
-    <t>CHRIST SANTUS BURHAN</t>
-  </si>
-  <si>
     <t>christsantusburhan.competition@gmail.com</t>
   </si>
   <si>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>Amarendra Dhireswara Wibawa</t>
+  </si>
+  <si>
+    <t>Christ Santus Burhan</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:K17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1037,14 +1037,14 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1060,10 +1060,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -1083,13 +1083,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1106,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -1129,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -1152,13 +1152,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1175,13 +1175,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1198,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -1218,13 +1218,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>4</v>
@@ -1238,13 +1238,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>4</v>
@@ -1258,13 +1258,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
@@ -1279,13 +1279,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
@@ -1300,13 +1300,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>4</v>
@@ -1320,13 +1320,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>4</v>
@@ -1340,13 +1340,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
@@ -1360,13 +1360,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1383,13 +1383,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>13</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1406,13 +1406,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>4</v>
@@ -1426,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>4</v>
@@ -1446,22 +1446,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1469,22 +1469,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1492,13 +1492,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>4</v>
@@ -1512,13 +1512,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>4</v>
@@ -1532,13 +1532,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>4</v>
@@ -1552,13 +1552,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>4</v>
@@ -1572,13 +1572,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>4</v>
@@ -1592,13 +1592,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>4</v>
@@ -1612,13 +1612,13 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>4</v>
@@ -1632,13 +1632,13 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>4</v>
@@ -1652,13 +1652,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>16</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1675,13 +1675,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>16</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1698,13 +1698,13 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>19</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -1721,13 +1721,13 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>19</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -1744,13 +1744,13 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>4</v>
@@ -1764,13 +1764,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>4</v>
@@ -1784,13 +1784,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>4</v>
@@ -1804,13 +1804,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>4</v>
@@ -1824,13 +1824,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>19</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -1847,13 +1847,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>4</v>
@@ -1867,13 +1867,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>4</v>
@@ -1887,13 +1887,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>4</v>
@@ -1907,13 +1907,13 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>16</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
@@ -1930,13 +1930,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>4</v>
@@ -1950,13 +1950,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>13</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -1973,13 +1973,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>4</v>
@@ -1993,13 +1993,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>4</v>
@@ -2013,13 +2013,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>4</v>
@@ -2033,13 +2033,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>4</v>
@@ -2054,13 +2054,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>4</v>
@@ -2075,13 +2075,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>4</v>
@@ -2095,13 +2095,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>4</v>
@@ -2115,13 +2115,13 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>4</v>
@@ -2135,13 +2135,13 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>4</v>
@@ -2155,13 +2155,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>4</v>
@@ -2175,13 +2175,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>4</v>
@@ -2195,13 +2195,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>4</v>
@@ -2215,13 +2215,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>4</v>
@@ -2235,13 +2235,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>4</v>
@@ -2255,13 +2255,13 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>4</v>
@@ -2275,13 +2275,13 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>4</v>
@@ -2295,13 +2295,13 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>4</v>
@@ -2315,13 +2315,13 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>4</v>
@@ -2335,13 +2335,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>4</v>
@@ -2355,13 +2355,13 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>4</v>
@@ -2375,13 +2375,13 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>4</v>
@@ -2395,13 +2395,13 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>4</v>
@@ -2415,13 +2415,13 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>16</v>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2438,13 +2438,13 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>4</v>
@@ -2458,13 +2458,13 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>19</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2481,13 +2481,13 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>4</v>
@@ -2501,13 +2501,13 @@
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>4</v>
@@ -2521,13 +2521,13 @@
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>13</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -2544,10 +2544,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
@@ -2564,10 +2564,10 @@
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
@@ -2584,10 +2584,10 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -2604,10 +2604,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
@@ -2624,10 +2624,10 @@
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
@@ -2644,10 +2644,10 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
@@ -2664,10 +2664,10 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
@@ -2684,10 +2684,10 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
@@ -2699,15 +2699,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
@@ -2719,15 +2719,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
@@ -2739,15 +2739,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -2882,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -2905,18 +2905,18 @@
         <v>0</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
@@ -2928,15 +2928,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
@@ -2947,16 +2947,17 @@
       <c r="F92" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
@@ -2967,6 +2968,7 @@
       <c r="F93" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="I93" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
